--- a/NCs_Controllers_List.xlsx
+++ b/NCs_Controllers_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU-com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AC62E9-A496-4AA5-9E9B-585C033D191A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B93EC29-B9AF-4CBC-9D74-6317A748138B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19065" yWindow="975" windowWidth="14205" windowHeight="15285" xr2:uid="{40636D9B-5A85-47FB-87C2-99D2F5C512FF}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="20370" windowHeight="16110" xr2:uid="{40636D9B-5A85-47FB-87C2-99D2F5C512FF}"/>
   </bookViews>
   <sheets>
     <sheet name="NOCs_Controllers_List" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="121">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>AT89C51RC2</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>PIC18F4550</t>
@@ -1001,8 +998,8 @@
   <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="4" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118:E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1014,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1045,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1060,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1078,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
@@ -1096,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
@@ -1114,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
@@ -1132,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
@@ -1150,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
@@ -1168,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>16</v>
@@ -1186,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -1204,10 +1201,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -1222,10 +1219,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>8</v>
@@ -1240,10 +1237,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>21</v>
@@ -1258,10 +1255,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -1276,10 +1273,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -1294,10 +1291,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
@@ -1312,10 +1309,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>50</v>
@@ -1330,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>13</v>
@@ -1348,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>13</v>
@@ -1366,10 +1363,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3">
         <v>125</v>
@@ -1384,10 +1381,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3">
         <v>125</v>
@@ -1402,10 +1399,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>16</v>
@@ -1420,10 +1417,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>16</v>
@@ -1438,10 +1435,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2">
         <v>15</v>
@@ -1456,10 +1453,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2">
         <v>26</v>
@@ -1474,10 +1471,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2">
         <v>26</v>
@@ -1492,10 +1489,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2">
         <v>26</v>
@@ -1510,10 +1507,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <v>15</v>
@@ -1528,10 +1525,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2">
         <v>15</v>
@@ -1546,10 +1543,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2">
         <v>15</v>
@@ -1564,10 +1561,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2">
         <v>15</v>
@@ -1582,10 +1579,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2">
         <v>15</v>
@@ -1600,10 +1597,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2">
         <v>15</v>
@@ -1618,10 +1615,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2">
         <v>15</v>
@@ -1636,10 +1633,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2">
         <v>24</v>
@@ -1654,7 +1651,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
@@ -1672,10 +1669,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -1690,10 +1687,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -1708,10 +1705,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -1726,10 +1723,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" s="3">
         <v>200</v>
@@ -1744,10 +1741,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="3">
         <v>200</v>
@@ -1762,10 +1759,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3">
         <v>232</v>
@@ -1780,10 +1777,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="3">
         <v>232</v>
@@ -1798,10 +1795,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2">
         <v>20</v>
@@ -1816,10 +1813,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -1834,10 +1831,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
@@ -1852,10 +1849,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="2">
         <v>15</v>
@@ -1870,10 +1867,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
@@ -1888,10 +1885,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="2">
         <v>20</v>
@@ -1906,10 +1903,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="2">
         <v>10</v>
@@ -1924,10 +1921,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="2">
         <v>15</v>
@@ -1942,10 +1939,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="2">
         <v>4</v>
@@ -1960,10 +1957,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="2">
         <v>2</v>
@@ -1978,10 +1975,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="2">
         <v>2</v>
@@ -1996,10 +1993,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -2014,10 +2011,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -2032,10 +2029,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -2050,10 +2047,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
@@ -2068,10 +2065,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" s="2">
         <v>5</v>
@@ -2086,10 +2083,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" s="2">
         <v>5</v>
@@ -2104,10 +2101,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2">
         <v>5</v>
@@ -2122,10 +2119,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="2">
         <v>4</v>
@@ -2140,10 +2137,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2">
         <v>20</v>
@@ -2158,10 +2155,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -2176,10 +2173,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="2">
         <v>4</v>
@@ -2194,10 +2191,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="2">
         <v>100</v>
@@ -2212,10 +2209,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" s="2">
         <v>5</v>
@@ -2230,10 +2227,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="2">
         <v>4</v>
@@ -2248,10 +2245,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="2">
         <v>50</v>
@@ -2266,10 +2263,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D72" s="2">
         <v>25</v>
@@ -2284,10 +2281,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2">
         <v>20</v>
@@ -2302,10 +2299,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D74" s="2">
         <v>20</v>
@@ -2320,10 +2317,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75" s="2">
         <v>5</v>
@@ -2338,10 +2335,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D76" s="2">
         <v>4</v>
@@ -2356,10 +2353,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" s="2">
         <v>10</v>
@@ -2374,10 +2371,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D78" s="2">
         <v>20</v>
@@ -2392,10 +2389,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D79" s="2">
         <v>5</v>
@@ -2410,10 +2407,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D80" s="2">
         <v>5</v>
@@ -2428,10 +2425,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D81" s="2">
         <v>40</v>
@@ -2446,7 +2443,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>4</v>
@@ -2464,7 +2461,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>5</v>
@@ -2482,10 +2479,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D84" s="2">
         <v>200</v>
@@ -2500,10 +2497,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D85" s="2">
         <v>6</v>
@@ -2518,10 +2515,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" s="2">
         <v>40</v>
@@ -2536,10 +2533,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2">
         <v>20</v>
@@ -2554,10 +2551,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2">
         <v>20</v>
@@ -2572,10 +2569,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2">
         <v>30</v>
@@ -2590,10 +2587,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D90" s="2">
         <v>50</v>
@@ -2608,10 +2605,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D91" s="2">
         <v>50</v>
@@ -2626,10 +2623,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D92" s="3">
         <v>170</v>
@@ -2644,10 +2641,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="2">
         <v>800</v>
@@ -2662,10 +2659,10 @@
         <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="2">
         <v>30</v>
@@ -2680,10 +2677,10 @@
         <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="2">
         <v>15</v>
@@ -2698,10 +2695,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D96" s="2">
         <v>900</v>
@@ -2716,10 +2713,10 @@
         <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D97" s="2">
         <v>100</v>
@@ -2734,7 +2731,7 @@
         <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>8</v>
@@ -2752,7 +2749,7 @@
         <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>9</v>
@@ -2770,7 +2767,7 @@
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>10</v>
@@ -2788,10 +2785,10 @@
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D101" s="2">
         <v>80</v>
@@ -2806,10 +2803,10 @@
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D102" s="3">
         <v>160</v>
@@ -2824,10 +2821,10 @@
         <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D103" s="2">
         <v>20</v>
@@ -2842,10 +2839,10 @@
         <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D104" s="2">
         <v>10</v>
@@ -2860,10 +2857,10 @@
         <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D105" s="2">
         <v>10</v>
@@ -2878,10 +2875,10 @@
         <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D106" s="2">
         <v>400</v>
@@ -2896,7 +2893,7 @@
         <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>4</v>
@@ -2914,7 +2911,7 @@
         <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>5</v>
@@ -2932,7 +2929,7 @@
         <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>6</v>
@@ -2950,7 +2947,7 @@
         <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>7</v>
@@ -2968,10 +2965,10 @@
         <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2">
         <v>10</v>
@@ -2986,10 +2983,10 @@
         <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D112" s="2">
         <v>2</v>
@@ -3004,10 +3001,10 @@
         <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D113" s="2">
         <v>2</v>
@@ -3022,10 +3019,10 @@
         <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D114" s="2">
         <v>3</v>
@@ -3040,10 +3037,10 @@
         <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2">
         <v>50</v>
@@ -3058,10 +3055,10 @@
         <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D116" s="2">
         <v>0</v>
@@ -3076,10 +3073,10 @@
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D117" s="2">
         <v>100</v>
@@ -3094,16 +3091,16 @@
         <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>18</v>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,16 +3108,16 @@
         <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>18</v>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3128,16 +3125,16 @@
         <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>18</v>
+      <c r="D120" s="2">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3145,16 +3142,16 @@
         <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3162,16 +3159,16 @@
         <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,16 +3176,16 @@
         <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3196,16 +3193,16 @@
         <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,16 +3210,16 @@
         <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3230,16 +3227,16 @@
         <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3247,16 +3244,16 @@
         <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3264,16 +3261,16 @@
         <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>18</v>
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3281,16 +3278,16 @@
         <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3298,16 +3295,16 @@
         <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>18</v>
+      <c r="D130" s="2">
+        <v>0</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3315,16 +3312,16 @@
         <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3332,16 +3329,16 @@
         <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>18</v>
+        <v>67</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3349,16 +3346,16 @@
         <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3366,16 +3363,16 @@
         <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,16 +3380,16 @@
         <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>18</v>
+        <v>101</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3400,16 +3397,16 @@
         <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>18</v>
+        <v>101</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3417,16 +3414,16 @@
         <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
